--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII SAS FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII SAS FIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBECF7E-5626-E349-83B0-F2EB42D5CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CFBE5-58B5-A24E-87EF-036E76C83822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -809,9 +809,6 @@
     <t>K0103009800018</t>
   </si>
   <si>
-    <t>SASTH46</t>
-  </si>
-  <si>
     <t>K0103009800027</t>
   </si>
   <si>
@@ -1551,6 +1548,9 @@
   </si>
   <si>
     <t>K0103009802463</t>
+  </si>
+  <si>
+    <t>SASTH46*</t>
   </si>
 </sst>
 </file>
@@ -1926,8 +1926,8 @@
   <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C242" sqref="C242"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,7 +1984,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>243</v>
@@ -2004,10 +2004,10 @@
         <v>231</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>256</v>
+      </c>
+      <c r="G3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>143</v>
@@ -2027,10 +2027,10 @@
         <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="G4" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>144</v>
@@ -2050,10 +2050,10 @@
         <v>231</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="G5" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>145</v>
@@ -2073,10 +2073,10 @@
         <v>231</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>146</v>
@@ -2096,10 +2096,10 @@
         <v>231</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>147</v>
@@ -2119,10 +2119,10 @@
         <v>231</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
+      </c>
+      <c r="G8" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>1008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>148</v>
@@ -2142,10 +2142,10 @@
         <v>231</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
+      </c>
+      <c r="G9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>149</v>
@@ -2165,10 +2165,10 @@
         <v>231</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+      <c r="G10" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>150</v>
@@ -2188,10 +2188,10 @@
         <v>231</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
+      </c>
+      <c r="G11" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2199,7 +2199,7 @@
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>151</v>
@@ -2211,10 +2211,10 @@
         <v>231</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
+      </c>
+      <c r="G12" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>1012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>152</v>
@@ -2234,10 +2234,10 @@
         <v>231</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
+      </c>
+      <c r="G13" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>1013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>153</v>
@@ -2257,10 +2257,10 @@
         <v>231</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
+      </c>
+      <c r="G14" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
         <v>1014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>154</v>
@@ -2280,10 +2280,10 @@
         <v>231</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
+      </c>
+      <c r="G15" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2291,7 +2291,7 @@
         <v>1015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>155</v>
@@ -2303,10 +2303,10 @@
         <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
+      </c>
+      <c r="G16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>156</v>
@@ -2326,10 +2326,10 @@
         <v>231</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>256</v>
+        <v>270</v>
+      </c>
+      <c r="G17" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>1017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>157</v>
@@ -2349,10 +2349,10 @@
         <v>231</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
+      </c>
+      <c r="G18" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2360,7 +2360,7 @@
         <v>1018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>158</v>
@@ -2372,10 +2372,10 @@
         <v>231</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="G19" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
         <v>1019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>159</v>
@@ -2395,10 +2395,10 @@
         <v>231</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>256</v>
+        <v>273</v>
+      </c>
+      <c r="G20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>1020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>160</v>
@@ -2418,10 +2418,10 @@
         <v>231</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>256</v>
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2429,7 +2429,7 @@
         <v>1021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>244</v>
@@ -2441,10 +2441,10 @@
         <v>231</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>256</v>
+        <v>275</v>
+      </c>
+      <c r="G22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2452,7 +2452,7 @@
         <v>1022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>161</v>
@@ -2464,10 +2464,10 @@
         <v>231</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
+      </c>
+      <c r="G23" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2475,7 +2475,7 @@
         <v>1023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>162</v>
@@ -2487,10 +2487,10 @@
         <v>231</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>256</v>
+        <v>277</v>
+      </c>
+      <c r="G24" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2498,7 +2498,7 @@
         <v>1024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>163</v>
@@ -2510,10 +2510,10 @@
         <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>256</v>
+        <v>278</v>
+      </c>
+      <c r="G25" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2521,7 +2521,7 @@
         <v>1025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>164</v>
@@ -2533,10 +2533,10 @@
         <v>231</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>256</v>
+        <v>279</v>
+      </c>
+      <c r="G26" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
         <v>1026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>165</v>
@@ -2556,10 +2556,10 @@
         <v>231</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>256</v>
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,7 +2567,7 @@
         <v>1027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>166</v>
@@ -2579,10 +2579,10 @@
         <v>231</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>256</v>
+        <v>281</v>
+      </c>
+      <c r="G28" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>1028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>167</v>
@@ -2602,10 +2602,10 @@
         <v>231</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>256</v>
+        <v>282</v>
+      </c>
+      <c r="G29" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,7 +2613,7 @@
         <v>1029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>168</v>
@@ -2625,10 +2625,10 @@
         <v>231</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>256</v>
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2636,7 +2636,7 @@
         <v>1030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>169</v>
@@ -2648,10 +2648,10 @@
         <v>231</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>256</v>
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>1031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>170</v>
@@ -2671,10 +2671,10 @@
         <v>231</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>256</v>
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>1032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>171</v>
@@ -2694,10 +2694,10 @@
         <v>231</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>256</v>
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2705,7 +2705,7 @@
         <v>1033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>245</v>
@@ -2717,10 +2717,10 @@
         <v>231</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2728,7 +2728,7 @@
         <v>1034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>246</v>
@@ -2740,10 +2740,10 @@
         <v>231</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>256</v>
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2751,7 +2751,7 @@
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>172</v>
@@ -2763,10 +2763,10 @@
         <v>231</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>256</v>
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>173</v>
@@ -2786,10 +2786,10 @@
         <v>231</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>256</v>
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2797,7 +2797,7 @@
         <v>1037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
@@ -2809,10 +2809,10 @@
         <v>231</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>256</v>
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2820,7 +2820,7 @@
         <v>1038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>174</v>
@@ -2832,10 +2832,10 @@
         <v>231</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>256</v>
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>1039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>175</v>
@@ -2855,10 +2855,10 @@
         <v>231</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>256</v>
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2866,7 +2866,7 @@
         <v>1040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>176</v>
@@ -2878,10 +2878,10 @@
         <v>231</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>256</v>
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
         <v>1041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>177</v>
@@ -2901,10 +2901,10 @@
         <v>231</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>256</v>
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2912,7 +2912,7 @@
         <v>1042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>178</v>
@@ -2924,10 +2924,10 @@
         <v>231</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>256</v>
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
         <v>1043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>179</v>
@@ -2947,10 +2947,10 @@
         <v>231</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>256</v>
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2958,7 +2958,7 @@
         <v>1044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>180</v>
@@ -2970,10 +2970,10 @@
         <v>231</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>256</v>
+        <v>298</v>
+      </c>
+      <c r="G45" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>1045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>181</v>
@@ -2993,10 +2993,10 @@
         <v>231</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>256</v>
+        <v>299</v>
+      </c>
+      <c r="G46" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3004,7 +3004,7 @@
         <v>1046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>247</v>
@@ -3016,10 +3016,10 @@
         <v>231</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3027,7 +3027,7 @@
         <v>1047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>182</v>
@@ -3039,10 +3039,10 @@
         <v>231</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>256</v>
+        <v>301</v>
+      </c>
+      <c r="G48" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>1048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>183</v>
@@ -3062,10 +3062,10 @@
         <v>231</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>256</v>
+        <v>302</v>
+      </c>
+      <c r="G49" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3073,7 +3073,7 @@
         <v>1049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>184</v>
@@ -3085,10 +3085,10 @@
         <v>231</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>256</v>
+        <v>303</v>
+      </c>
+      <c r="G50" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3096,7 +3096,7 @@
         <v>1050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>185</v>
@@ -3108,10 +3108,10 @@
         <v>231</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>256</v>
+        <v>304</v>
+      </c>
+      <c r="G51" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>1051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>186</v>
@@ -3131,10 +3131,10 @@
         <v>231</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>256</v>
+        <v>305</v>
+      </c>
+      <c r="G52" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
         <v>1052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>187</v>
@@ -3154,10 +3154,10 @@
         <v>231</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>256</v>
+        <v>306</v>
+      </c>
+      <c r="G53" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3165,7 +3165,7 @@
         <v>1053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>188</v>
@@ -3177,10 +3177,10 @@
         <v>231</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>256</v>
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>1054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>189</v>
@@ -3200,10 +3200,10 @@
         <v>231</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>256</v>
+        <v>308</v>
+      </c>
+      <c r="G55" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>1055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>190</v>
@@ -3223,10 +3223,10 @@
         <v>231</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>256</v>
+        <v>309</v>
+      </c>
+      <c r="G56" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3234,7 +3234,7 @@
         <v>1056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>191</v>
@@ -3246,10 +3246,10 @@
         <v>231</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>256</v>
+        <v>310</v>
+      </c>
+      <c r="G57" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3257,7 +3257,7 @@
         <v>1057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>192</v>
@@ -3269,10 +3269,10 @@
         <v>231</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>256</v>
+        <v>311</v>
+      </c>
+      <c r="G58" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3280,7 +3280,7 @@
         <v>1058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>193</v>
@@ -3292,10 +3292,10 @@
         <v>231</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>256</v>
+        <v>312</v>
+      </c>
+      <c r="G59" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3303,7 +3303,7 @@
         <v>1059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>194</v>
@@ -3315,10 +3315,10 @@
         <v>231</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>256</v>
+        <v>313</v>
+      </c>
+      <c r="G60" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3326,7 +3326,7 @@
         <v>1060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>195</v>
@@ -3338,10 +3338,10 @@
         <v>231</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>256</v>
+        <v>314</v>
+      </c>
+      <c r="G61" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3349,7 +3349,7 @@
         <v>1061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>196</v>
@@ -3361,10 +3361,10 @@
         <v>231</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>256</v>
+        <v>315</v>
+      </c>
+      <c r="G62" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3372,7 +3372,7 @@
         <v>1062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>197</v>
@@ -3384,10 +3384,10 @@
         <v>231</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>256</v>
+        <v>316</v>
+      </c>
+      <c r="G63" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3395,7 +3395,7 @@
         <v>1063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>248</v>
@@ -3407,10 +3407,10 @@
         <v>231</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>256</v>
+        <v>317</v>
+      </c>
+      <c r="G64" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3418,7 +3418,7 @@
         <v>1064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>198</v>
@@ -3430,10 +3430,10 @@
         <v>231</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>256</v>
+        <v>318</v>
+      </c>
+      <c r="G65" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
         <v>1065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>199</v>
@@ -3453,10 +3453,10 @@
         <v>231</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>256</v>
+        <v>319</v>
+      </c>
+      <c r="G66" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3464,7 +3464,7 @@
         <v>1066</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>200</v>
@@ -3476,10 +3476,10 @@
         <v>231</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>256</v>
+        <v>320</v>
+      </c>
+      <c r="G67" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3487,7 +3487,7 @@
         <v>1067</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>201</v>
@@ -3499,10 +3499,10 @@
         <v>231</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>256</v>
+        <v>321</v>
+      </c>
+      <c r="G68" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3510,7 +3510,7 @@
         <v>1068</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>202</v>
@@ -3522,10 +3522,10 @@
         <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>256</v>
+        <v>322</v>
+      </c>
+      <c r="G69" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
         <v>1069</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>249</v>
@@ -3545,10 +3545,10 @@
         <v>231</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>256</v>
+        <v>323</v>
+      </c>
+      <c r="G70" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>1070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>203</v>
@@ -3568,10 +3568,10 @@
         <v>231</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>256</v>
+        <v>324</v>
+      </c>
+      <c r="G71" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>1071</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>204</v>
@@ -3591,10 +3591,10 @@
         <v>231</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>256</v>
+        <v>325</v>
+      </c>
+      <c r="G72" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3602,7 +3602,7 @@
         <v>1072</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>205</v>
@@ -3614,10 +3614,10 @@
         <v>231</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>256</v>
+        <v>326</v>
+      </c>
+      <c r="G73" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3625,7 +3625,7 @@
         <v>1073</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>206</v>
@@ -3637,10 +3637,10 @@
         <v>231</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>256</v>
+        <v>327</v>
+      </c>
+      <c r="G74" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3648,7 +3648,7 @@
         <v>1074</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>250</v>
@@ -3660,10 +3660,10 @@
         <v>231</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>256</v>
+        <v>328</v>
+      </c>
+      <c r="G75" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>1075</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>207</v>
@@ -3683,10 +3683,10 @@
         <v>231</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>256</v>
+        <v>329</v>
+      </c>
+      <c r="G76" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
         <v>1076</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>208</v>
@@ -3706,10 +3706,10 @@
         <v>231</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>256</v>
+        <v>330</v>
+      </c>
+      <c r="G77" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>1077</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>209</v>
@@ -3729,10 +3729,10 @@
         <v>231</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>256</v>
+        <v>331</v>
+      </c>
+      <c r="G78" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
         <v>1078</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>210</v>
@@ -3752,10 +3752,10 @@
         <v>231</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>256</v>
+        <v>332</v>
+      </c>
+      <c r="G79" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3763,7 +3763,7 @@
         <v>1079</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>211</v>
@@ -3775,10 +3775,10 @@
         <v>231</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>256</v>
+        <v>333</v>
+      </c>
+      <c r="G80" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>1080</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>212</v>
@@ -3798,10 +3798,10 @@
         <v>231</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>256</v>
+        <v>334</v>
+      </c>
+      <c r="G81" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
         <v>1081</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>213</v>
@@ -3821,10 +3821,10 @@
         <v>231</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>256</v>
+        <v>335</v>
+      </c>
+      <c r="G82" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>1082</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>214</v>
@@ -3844,10 +3844,10 @@
         <v>231</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>256</v>
+        <v>336</v>
+      </c>
+      <c r="G83" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>1083</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>215</v>
@@ -3867,10 +3867,10 @@
         <v>231</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>256</v>
+        <v>337</v>
+      </c>
+      <c r="G84" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>1084</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>216</v>
@@ -3890,10 +3890,10 @@
         <v>231</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>256</v>
+        <v>338</v>
+      </c>
+      <c r="G85" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3901,7 +3901,7 @@
         <v>1085</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>217</v>
@@ -3913,10 +3913,10 @@
         <v>231</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>256</v>
+        <v>339</v>
+      </c>
+      <c r="G86" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3924,7 +3924,7 @@
         <v>1086</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>251</v>
@@ -3936,10 +3936,10 @@
         <v>231</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>256</v>
+        <v>340</v>
+      </c>
+      <c r="G87" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3947,7 +3947,7 @@
         <v>1087</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>218</v>
@@ -3959,10 +3959,10 @@
         <v>231</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>256</v>
+        <v>341</v>
+      </c>
+      <c r="G88" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3970,7 +3970,7 @@
         <v>1088</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>219</v>
@@ -3982,10 +3982,10 @@
         <v>231</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>256</v>
+        <v>342</v>
+      </c>
+      <c r="G89" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>1089</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>220</v>
@@ -4005,10 +4005,10 @@
         <v>231</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>256</v>
+        <v>343</v>
+      </c>
+      <c r="G90" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4016,7 +4016,7 @@
         <v>1090</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>221</v>
@@ -4028,10 +4028,10 @@
         <v>231</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>256</v>
+        <v>344</v>
+      </c>
+      <c r="G91" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>1091</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>222</v>
@@ -4051,10 +4051,10 @@
         <v>231</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>256</v>
+        <v>345</v>
+      </c>
+      <c r="G92" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>1092</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>223</v>
@@ -4074,10 +4074,10 @@
         <v>231</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>256</v>
+        <v>346</v>
+      </c>
+      <c r="G93" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4085,7 +4085,7 @@
         <v>1093</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>224</v>
@@ -4097,10 +4097,10 @@
         <v>231</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>256</v>
+        <v>347</v>
+      </c>
+      <c r="G94" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
         <v>1094</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>225</v>
@@ -4120,10 +4120,10 @@
         <v>231</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>256</v>
+        <v>348</v>
+      </c>
+      <c r="G95" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4131,7 +4131,7 @@
         <v>1095</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>226</v>
@@ -4143,10 +4143,10 @@
         <v>231</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>256</v>
+        <v>349</v>
+      </c>
+      <c r="G96" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4154,7 +4154,7 @@
         <v>1096</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>252</v>
@@ -4166,10 +4166,10 @@
         <v>231</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>256</v>
+        <v>350</v>
+      </c>
+      <c r="G97" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>1097</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>227</v>
@@ -4189,10 +4189,10 @@
         <v>231</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>256</v>
+        <v>351</v>
+      </c>
+      <c r="G98" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>1098</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>232</v>
@@ -4212,10 +4212,10 @@
         <v>228</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>256</v>
+        <v>352</v>
+      </c>
+      <c r="G99" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>1099</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4235,10 +4235,10 @@
         <v>228</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>256</v>
+        <v>353</v>
+      </c>
+      <c r="G100" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <v>1100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -4258,10 +4258,10 @@
         <v>228</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>256</v>
+        <v>354</v>
+      </c>
+      <c r="G101" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4269,7 +4269,7 @@
         <v>1101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -4281,10 +4281,10 @@
         <v>228</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>256</v>
+        <v>355</v>
+      </c>
+      <c r="G102" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4292,7 +4292,7 @@
         <v>1102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -4304,10 +4304,10 @@
         <v>228</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>256</v>
+        <v>356</v>
+      </c>
+      <c r="G103" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -4315,7 +4315,7 @@
         <v>1103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>233</v>
@@ -4327,10 +4327,10 @@
         <v>228</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>256</v>
+        <v>357</v>
+      </c>
+      <c r="G104" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4338,7 +4338,7 @@
         <v>1104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
@@ -4350,10 +4350,10 @@
         <v>228</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>256</v>
+        <v>358</v>
+      </c>
+      <c r="G105" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>1105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -4373,10 +4373,10 @@
         <v>228</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>256</v>
+        <v>359</v>
+      </c>
+      <c r="G106" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
         <v>1106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
@@ -4396,10 +4396,10 @@
         <v>228</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>256</v>
+        <v>360</v>
+      </c>
+      <c r="G107" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>1107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
@@ -4419,10 +4419,10 @@
         <v>228</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>256</v>
+        <v>361</v>
+      </c>
+      <c r="G108" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -4430,7 +4430,7 @@
         <v>1108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
@@ -4442,10 +4442,10 @@
         <v>228</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>256</v>
+        <v>362</v>
+      </c>
+      <c r="G109" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -4453,7 +4453,7 @@
         <v>1109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
@@ -4465,10 +4465,10 @@
         <v>228</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>256</v>
+        <v>363</v>
+      </c>
+      <c r="G110" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -4476,7 +4476,7 @@
         <v>1110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
@@ -4488,10 +4488,10 @@
         <v>228</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>256</v>
+        <v>364</v>
+      </c>
+      <c r="G111" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -4499,7 +4499,7 @@
         <v>1111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
@@ -4511,10 +4511,10 @@
         <v>228</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>256</v>
+        <v>365</v>
+      </c>
+      <c r="G112" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4522,7 +4522,7 @@
         <v>1112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>21</v>
@@ -4534,10 +4534,10 @@
         <v>228</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>256</v>
+        <v>366</v>
+      </c>
+      <c r="G113" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>1113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>22</v>
@@ -4557,10 +4557,10 @@
         <v>228</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>256</v>
+        <v>367</v>
+      </c>
+      <c r="G114" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>1114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
@@ -4580,10 +4580,10 @@
         <v>228</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>256</v>
+        <v>368</v>
+      </c>
+      <c r="G115" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4591,10 +4591,10 @@
         <v>1115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D116" s="2">
         <v>1045404</v>
@@ -4603,10 +4603,10 @@
         <v>228</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>256</v>
+        <v>370</v>
+      </c>
+      <c r="G116" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>1116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>24</v>
@@ -4626,10 +4626,10 @@
         <v>228</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>256</v>
+        <v>371</v>
+      </c>
+      <c r="G117" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4637,7 +4637,7 @@
         <v>1117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
@@ -4649,10 +4649,10 @@
         <v>228</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>256</v>
+        <v>372</v>
+      </c>
+      <c r="G118" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4660,7 +4660,7 @@
         <v>1118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>26</v>
@@ -4672,10 +4672,10 @@
         <v>228</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>256</v>
+        <v>373</v>
+      </c>
+      <c r="G119" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4683,7 +4683,7 @@
         <v>1119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
@@ -4695,10 +4695,10 @@
         <v>228</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>256</v>
+        <v>374</v>
+      </c>
+      <c r="G120" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4706,7 +4706,7 @@
         <v>1120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>253</v>
@@ -4718,10 +4718,10 @@
         <v>228</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>256</v>
+        <v>375</v>
+      </c>
+      <c r="G121" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4729,7 +4729,7 @@
         <v>1121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
@@ -4741,10 +4741,10 @@
         <v>228</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>256</v>
+        <v>376</v>
+      </c>
+      <c r="G122" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4752,7 +4752,7 @@
         <v>1122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>29</v>
@@ -4764,10 +4764,10 @@
         <v>228</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>256</v>
+        <v>377</v>
+      </c>
+      <c r="G123" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>1123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
@@ -4787,10 +4787,10 @@
         <v>228</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>256</v>
+        <v>378</v>
+      </c>
+      <c r="G124" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>1124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>30</v>
@@ -4810,10 +4810,10 @@
         <v>228</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>256</v>
+        <v>379</v>
+      </c>
+      <c r="G125" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4821,7 +4821,7 @@
         <v>1125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>31</v>
@@ -4833,10 +4833,10 @@
         <v>228</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>256</v>
+        <v>380</v>
+      </c>
+      <c r="G126" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>1126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>32</v>
@@ -4856,10 +4856,10 @@
         <v>228</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>256</v>
+        <v>381</v>
+      </c>
+      <c r="G127" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4867,7 +4867,7 @@
         <v>1127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>33</v>
@@ -4879,10 +4879,10 @@
         <v>228</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>256</v>
+        <v>382</v>
+      </c>
+      <c r="G128" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4890,7 +4890,7 @@
         <v>1128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>234</v>
@@ -4902,10 +4902,10 @@
         <v>228</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>256</v>
+        <v>383</v>
+      </c>
+      <c r="G129" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>1129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>34</v>
@@ -4925,10 +4925,10 @@
         <v>228</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>256</v>
+        <v>384</v>
+      </c>
+      <c r="G130" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -4936,7 +4936,7 @@
         <v>1130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>35</v>
@@ -4948,10 +4948,10 @@
         <v>228</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>256</v>
+        <v>385</v>
+      </c>
+      <c r="G131" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>1131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>36</v>
@@ -4971,10 +4971,10 @@
         <v>228</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>256</v>
+        <v>386</v>
+      </c>
+      <c r="G132" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>1132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>37</v>
@@ -4994,10 +4994,10 @@
         <v>228</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>256</v>
+        <v>387</v>
+      </c>
+      <c r="G133" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5005,7 +5005,7 @@
         <v>1133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>38</v>
@@ -5017,10 +5017,10 @@
         <v>228</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>256</v>
+        <v>388</v>
+      </c>
+      <c r="G134" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>1134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>39</v>
@@ -5040,10 +5040,10 @@
         <v>228</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>256</v>
+        <v>389</v>
+      </c>
+      <c r="G135" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5051,7 +5051,7 @@
         <v>1135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>40</v>
@@ -5063,10 +5063,10 @@
         <v>228</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>256</v>
+        <v>390</v>
+      </c>
+      <c r="G136" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5074,7 +5074,7 @@
         <v>1136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>41</v>
@@ -5086,10 +5086,10 @@
         <v>228</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>256</v>
+        <v>391</v>
+      </c>
+      <c r="G137" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5097,7 +5097,7 @@
         <v>1137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>42</v>
@@ -5109,10 +5109,10 @@
         <v>228</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>256</v>
+        <v>392</v>
+      </c>
+      <c r="G138" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -5120,7 +5120,7 @@
         <v>1138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>43</v>
@@ -5132,10 +5132,10 @@
         <v>228</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>256</v>
+        <v>393</v>
+      </c>
+      <c r="G139" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>1139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>44</v>
@@ -5155,10 +5155,10 @@
         <v>228</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>256</v>
+        <v>394</v>
+      </c>
+      <c r="G140" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
         <v>1140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>45</v>
@@ -5178,10 +5178,10 @@
         <v>228</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>256</v>
+        <v>395</v>
+      </c>
+      <c r="G141" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -5189,7 +5189,7 @@
         <v>1141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>46</v>
@@ -5201,10 +5201,10 @@
         <v>228</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>256</v>
+        <v>396</v>
+      </c>
+      <c r="G142" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -5212,7 +5212,7 @@
         <v>1142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>47</v>
@@ -5224,10 +5224,10 @@
         <v>228</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>256</v>
+        <v>397</v>
+      </c>
+      <c r="G143" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5235,7 +5235,7 @@
         <v>1143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>48</v>
@@ -5247,10 +5247,10 @@
         <v>228</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>256</v>
+        <v>398</v>
+      </c>
+      <c r="G144" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>1144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>49</v>
@@ -5270,10 +5270,10 @@
         <v>228</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>256</v>
+        <v>399</v>
+      </c>
+      <c r="G145" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -5281,7 +5281,7 @@
         <v>1145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>50</v>
@@ -5293,10 +5293,10 @@
         <v>228</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>256</v>
+        <v>400</v>
+      </c>
+      <c r="G146" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -5304,7 +5304,7 @@
         <v>1146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>85</v>
@@ -5316,10 +5316,10 @@
         <v>230</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>256</v>
+        <v>401</v>
+      </c>
+      <c r="G147" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>1147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>86</v>
@@ -5339,10 +5339,10 @@
         <v>230</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>256</v>
+        <v>402</v>
+      </c>
+      <c r="G148" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -5350,7 +5350,7 @@
         <v>1148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>87</v>
@@ -5362,10 +5362,10 @@
         <v>230</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>256</v>
+        <v>403</v>
+      </c>
+      <c r="G149" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5373,7 +5373,7 @@
         <v>1149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>238</v>
@@ -5385,10 +5385,10 @@
         <v>230</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>256</v>
+        <v>404</v>
+      </c>
+      <c r="G150" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>1150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>88</v>
@@ -5408,10 +5408,10 @@
         <v>230</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>256</v>
+        <v>405</v>
+      </c>
+      <c r="G151" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -5419,7 +5419,7 @@
         <v>1151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>89</v>
@@ -5431,10 +5431,10 @@
         <v>230</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>256</v>
+        <v>406</v>
+      </c>
+      <c r="G152" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -5442,7 +5442,7 @@
         <v>1152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>90</v>
@@ -5454,10 +5454,10 @@
         <v>230</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>256</v>
+        <v>407</v>
+      </c>
+      <c r="G153" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>1153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>91</v>
@@ -5477,10 +5477,10 @@
         <v>230</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>256</v>
+        <v>408</v>
+      </c>
+      <c r="G154" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -5488,7 +5488,7 @@
         <v>1154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>92</v>
@@ -5500,10 +5500,10 @@
         <v>230</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>256</v>
+        <v>409</v>
+      </c>
+      <c r="G155" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>1155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>93</v>
@@ -5523,10 +5523,10 @@
         <v>230</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>256</v>
+        <v>410</v>
+      </c>
+      <c r="G156" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5534,7 +5534,7 @@
         <v>1156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>94</v>
@@ -5546,10 +5546,10 @@
         <v>230</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>256</v>
+        <v>411</v>
+      </c>
+      <c r="G157" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5557,7 +5557,7 @@
         <v>1157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>95</v>
@@ -5569,10 +5569,10 @@
         <v>230</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>256</v>
+        <v>412</v>
+      </c>
+      <c r="G158" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -5580,7 +5580,7 @@
         <v>1158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>239</v>
@@ -5592,10 +5592,10 @@
         <v>230</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>256</v>
+        <v>413</v>
+      </c>
+      <c r="G159" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -5603,7 +5603,7 @@
         <v>1159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>96</v>
@@ -5615,10 +5615,10 @@
         <v>230</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>256</v>
+        <v>414</v>
+      </c>
+      <c r="G160" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -5626,7 +5626,7 @@
         <v>1160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>240</v>
@@ -5638,10 +5638,10 @@
         <v>230</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>256</v>
+        <v>415</v>
+      </c>
+      <c r="G161" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>1161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>97</v>
@@ -5661,10 +5661,10 @@
         <v>230</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>256</v>
+        <v>416</v>
+      </c>
+      <c r="G162" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -5672,7 +5672,7 @@
         <v>1162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>98</v>
@@ -5684,10 +5684,10 @@
         <v>230</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>256</v>
+        <v>417</v>
+      </c>
+      <c r="G163" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>1163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>99</v>
@@ -5707,10 +5707,10 @@
         <v>230</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>256</v>
+        <v>418</v>
+      </c>
+      <c r="G164" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>1164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>100</v>
@@ -5730,10 +5730,10 @@
         <v>230</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>256</v>
+        <v>419</v>
+      </c>
+      <c r="G165" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -5741,7 +5741,7 @@
         <v>1165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>101</v>
@@ -5753,10 +5753,10 @@
         <v>230</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>256</v>
+        <v>420</v>
+      </c>
+      <c r="G166" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>1166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>241</v>
@@ -5776,10 +5776,10 @@
         <v>230</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>256</v>
+        <v>421</v>
+      </c>
+      <c r="G167" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -5787,7 +5787,7 @@
         <v>1167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>102</v>
@@ -5799,10 +5799,10 @@
         <v>230</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>256</v>
+        <v>422</v>
+      </c>
+      <c r="G168" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -5810,7 +5810,7 @@
         <v>1168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>103</v>
@@ -5822,10 +5822,10 @@
         <v>230</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>256</v>
+        <v>423</v>
+      </c>
+      <c r="G169" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>1169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>104</v>
@@ -5845,10 +5845,10 @@
         <v>230</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>256</v>
+        <v>424</v>
+      </c>
+      <c r="G170" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -5856,7 +5856,7 @@
         <v>1170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>105</v>
@@ -5868,10 +5868,10 @@
         <v>230</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>256</v>
+        <v>425</v>
+      </c>
+      <c r="G171" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>1171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>106</v>
@@ -5891,10 +5891,10 @@
         <v>230</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>256</v>
+        <v>426</v>
+      </c>
+      <c r="G172" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
         <v>1172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>107</v>
@@ -5914,10 +5914,10 @@
         <v>230</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>256</v>
+        <v>427</v>
+      </c>
+      <c r="G173" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
         <v>1173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>108</v>
@@ -5937,10 +5937,10 @@
         <v>230</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>256</v>
+        <v>428</v>
+      </c>
+      <c r="G174" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5948,7 +5948,7 @@
         <v>1174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>109</v>
@@ -5960,10 +5960,10 @@
         <v>230</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>256</v>
+        <v>429</v>
+      </c>
+      <c r="G175" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -5971,7 +5971,7 @@
         <v>1175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>110</v>
@@ -5983,10 +5983,10 @@
         <v>230</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>256</v>
+        <v>430</v>
+      </c>
+      <c r="G176" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -5994,7 +5994,7 @@
         <v>1176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>111</v>
@@ -6006,10 +6006,10 @@
         <v>230</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>256</v>
+        <v>431</v>
+      </c>
+      <c r="G177" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6017,7 +6017,7 @@
         <v>1177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>112</v>
@@ -6029,10 +6029,10 @@
         <v>230</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>256</v>
+        <v>432</v>
+      </c>
+      <c r="G178" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
         <v>1178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>113</v>
@@ -6052,10 +6052,10 @@
         <v>230</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>256</v>
+        <v>433</v>
+      </c>
+      <c r="G179" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>1179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>114</v>
@@ -6075,10 +6075,10 @@
         <v>230</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>256</v>
+        <v>434</v>
+      </c>
+      <c r="G180" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
         <v>1180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>115</v>
@@ -6098,10 +6098,10 @@
         <v>230</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>256</v>
+        <v>435</v>
+      </c>
+      <c r="G181" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -6109,7 +6109,7 @@
         <v>1181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>116</v>
@@ -6121,10 +6121,10 @@
         <v>230</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>256</v>
+        <v>436</v>
+      </c>
+      <c r="G182" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
         <v>1182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>117</v>
@@ -6144,10 +6144,10 @@
         <v>230</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>256</v>
+        <v>437</v>
+      </c>
+      <c r="G183" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6155,7 +6155,7 @@
         <v>1183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>118</v>
@@ -6167,10 +6167,10 @@
         <v>230</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>256</v>
+        <v>438</v>
+      </c>
+      <c r="G184" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6178,7 +6178,7 @@
         <v>1184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>119</v>
@@ -6190,10 +6190,10 @@
         <v>230</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>256</v>
+        <v>439</v>
+      </c>
+      <c r="G185" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6201,7 +6201,7 @@
         <v>1185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>120</v>
@@ -6213,10 +6213,10 @@
         <v>230</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>256</v>
+        <v>440</v>
+      </c>
+      <c r="G186" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6224,7 +6224,7 @@
         <v>1186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>121</v>
@@ -6236,10 +6236,10 @@
         <v>230</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>256</v>
+        <v>441</v>
+      </c>
+      <c r="G187" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>1187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>122</v>
@@ -6259,10 +6259,10 @@
         <v>230</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>256</v>
+        <v>442</v>
+      </c>
+      <c r="G188" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -6270,7 +6270,7 @@
         <v>1188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>123</v>
@@ -6282,10 +6282,10 @@
         <v>230</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>256</v>
+        <v>443</v>
+      </c>
+      <c r="G189" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -6293,7 +6293,7 @@
         <v>1189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>124</v>
@@ -6305,10 +6305,10 @@
         <v>230</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>256</v>
+        <v>444</v>
+      </c>
+      <c r="G190" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
         <v>1190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>125</v>
@@ -6328,10 +6328,10 @@
         <v>230</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>256</v>
+        <v>445</v>
+      </c>
+      <c r="G191" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
         <v>1191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>126</v>
@@ -6351,10 +6351,10 @@
         <v>230</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>256</v>
+        <v>446</v>
+      </c>
+      <c r="G192" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -6362,7 +6362,7 @@
         <v>1192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>127</v>
@@ -6374,10 +6374,10 @@
         <v>230</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>256</v>
+        <v>447</v>
+      </c>
+      <c r="G193" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
         <v>1193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>128</v>
@@ -6397,10 +6397,10 @@
         <v>230</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>256</v>
+        <v>448</v>
+      </c>
+      <c r="G194" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -6408,7 +6408,7 @@
         <v>1194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>129</v>
@@ -6420,10 +6420,10 @@
         <v>230</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>256</v>
+        <v>449</v>
+      </c>
+      <c r="G195" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>1195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>130</v>
@@ -6443,10 +6443,10 @@
         <v>230</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>256</v>
+        <v>450</v>
+      </c>
+      <c r="G196" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
         <v>1196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>131</v>
@@ -6466,10 +6466,10 @@
         <v>230</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>256</v>
+        <v>451</v>
+      </c>
+      <c r="G197" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -6477,7 +6477,7 @@
         <v>1197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>132</v>
@@ -6489,10 +6489,10 @@
         <v>230</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>256</v>
+        <v>452</v>
+      </c>
+      <c r="G198" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -6500,7 +6500,7 @@
         <v>1198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>133</v>
@@ -6512,10 +6512,10 @@
         <v>230</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>256</v>
+        <v>453</v>
+      </c>
+      <c r="G199" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -6523,7 +6523,7 @@
         <v>1199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>134</v>
@@ -6535,10 +6535,10 @@
         <v>230</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>256</v>
+        <v>454</v>
+      </c>
+      <c r="G200" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -6546,7 +6546,7 @@
         <v>1200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>135</v>
@@ -6558,10 +6558,10 @@
         <v>230</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>256</v>
+        <v>455</v>
+      </c>
+      <c r="G201" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>1201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>136</v>
@@ -6581,10 +6581,10 @@
         <v>230</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>256</v>
+        <v>456</v>
+      </c>
+      <c r="G202" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -6592,7 +6592,7 @@
         <v>1202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>137</v>
@@ -6604,10 +6604,10 @@
         <v>230</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>256</v>
+        <v>457</v>
+      </c>
+      <c r="G203" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>1203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>138</v>
@@ -6627,10 +6627,10 @@
         <v>230</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>256</v>
+        <v>458</v>
+      </c>
+      <c r="G204" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -6638,7 +6638,7 @@
         <v>1204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>139</v>
@@ -6650,10 +6650,10 @@
         <v>230</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>256</v>
+        <v>459</v>
+      </c>
+      <c r="G205" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -6661,7 +6661,7 @@
         <v>1205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>242</v>
@@ -6673,10 +6673,10 @@
         <v>230</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>256</v>
+        <v>460</v>
+      </c>
+      <c r="G206" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
         <v>1206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>140</v>
@@ -6696,10 +6696,10 @@
         <v>230</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>256</v>
+        <v>461</v>
+      </c>
+      <c r="G207" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -6707,7 +6707,7 @@
         <v>1207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>141</v>
@@ -6719,10 +6719,10 @@
         <v>230</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>256</v>
+        <v>462</v>
+      </c>
+      <c r="G208" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -6730,7 +6730,7 @@
         <v>1208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>51</v>
@@ -6742,10 +6742,10 @@
         <v>229</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>256</v>
+        <v>463</v>
+      </c>
+      <c r="G209" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -6753,7 +6753,7 @@
         <v>1209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>52</v>
@@ -6765,10 +6765,10 @@
         <v>229</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>256</v>
+        <v>464</v>
+      </c>
+      <c r="G210" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -6776,7 +6776,7 @@
         <v>1210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>53</v>
@@ -6788,10 +6788,10 @@
         <v>229</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>256</v>
+        <v>465</v>
+      </c>
+      <c r="G211" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>1211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>54</v>
@@ -6811,10 +6811,10 @@
         <v>229</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>256</v>
+        <v>466</v>
+      </c>
+      <c r="G212" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -6822,7 +6822,7 @@
         <v>1212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>235</v>
@@ -6834,10 +6834,10 @@
         <v>229</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>256</v>
+        <v>467</v>
+      </c>
+      <c r="G213" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -6845,7 +6845,7 @@
         <v>1213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>55</v>
@@ -6857,10 +6857,10 @@
         <v>229</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>256</v>
+        <v>468</v>
+      </c>
+      <c r="G214" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -6868,7 +6868,7 @@
         <v>1214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>56</v>
@@ -6880,10 +6880,10 @@
         <v>229</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>256</v>
+        <v>469</v>
+      </c>
+      <c r="G215" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -6891,7 +6891,7 @@
         <v>1215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>57</v>
@@ -6903,10 +6903,10 @@
         <v>229</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>256</v>
+        <v>470</v>
+      </c>
+      <c r="G216" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -6914,7 +6914,7 @@
         <v>1216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>58</v>
@@ -6926,10 +6926,10 @@
         <v>229</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>256</v>
+        <v>471</v>
+      </c>
+      <c r="G217" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -6937,7 +6937,7 @@
         <v>1217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>59</v>
@@ -6949,10 +6949,10 @@
         <v>229</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>256</v>
+        <v>472</v>
+      </c>
+      <c r="G218" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -6960,7 +6960,7 @@
         <v>1218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>60</v>
@@ -6972,10 +6972,10 @@
         <v>229</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>256</v>
+        <v>473</v>
+      </c>
+      <c r="G219" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>1219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>61</v>
@@ -6995,10 +6995,10 @@
         <v>229</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>256</v>
+        <v>474</v>
+      </c>
+      <c r="G220" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -7006,7 +7006,7 @@
         <v>1220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>62</v>
@@ -7018,10 +7018,10 @@
         <v>229</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>256</v>
+        <v>475</v>
+      </c>
+      <c r="G221" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -7029,7 +7029,7 @@
         <v>1221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>63</v>
@@ -7041,10 +7041,10 @@
         <v>229</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>256</v>
+        <v>476</v>
+      </c>
+      <c r="G222" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -7052,7 +7052,7 @@
         <v>1222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>64</v>
@@ -7064,10 +7064,10 @@
         <v>229</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>256</v>
+        <v>477</v>
+      </c>
+      <c r="G223" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -7075,7 +7075,7 @@
         <v>1223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>65</v>
@@ -7087,10 +7087,10 @@
         <v>229</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>256</v>
+        <v>478</v>
+      </c>
+      <c r="G224" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -7098,7 +7098,7 @@
         <v>1224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>66</v>
@@ -7110,10 +7110,10 @@
         <v>229</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>256</v>
+        <v>479</v>
+      </c>
+      <c r="G225" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>1225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>67</v>
@@ -7133,10 +7133,10 @@
         <v>229</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>256</v>
+        <v>480</v>
+      </c>
+      <c r="G226" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
         <v>1226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>68</v>
@@ -7156,10 +7156,10 @@
         <v>229</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>256</v>
+        <v>481</v>
+      </c>
+      <c r="G227" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>1227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>69</v>
@@ -7179,10 +7179,10 @@
         <v>229</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>256</v>
+        <v>482</v>
+      </c>
+      <c r="G228" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>1228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>236</v>
@@ -7202,10 +7202,10 @@
         <v>229</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>256</v>
+        <v>483</v>
+      </c>
+      <c r="G229" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7213,7 +7213,7 @@
         <v>1229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>237</v>
@@ -7225,10 +7225,10 @@
         <v>229</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>256</v>
+        <v>484</v>
+      </c>
+      <c r="G230" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
         <v>1230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>70</v>
@@ -7248,10 +7248,10 @@
         <v>229</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>256</v>
+        <v>485</v>
+      </c>
+      <c r="G231" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -7259,7 +7259,7 @@
         <v>1231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>71</v>
@@ -7271,10 +7271,10 @@
         <v>229</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>256</v>
+        <v>486</v>
+      </c>
+      <c r="G232" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -7282,7 +7282,7 @@
         <v>1232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>72</v>
@@ -7294,10 +7294,10 @@
         <v>229</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>256</v>
+        <v>487</v>
+      </c>
+      <c r="G233" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -7305,10 +7305,10 @@
         <v>1233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D234" s="2">
         <v>1047404</v>
@@ -7317,10 +7317,10 @@
         <v>229</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>256</v>
+        <v>489</v>
+      </c>
+      <c r="G234" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7328,7 +7328,7 @@
         <v>1234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>73</v>
@@ -7340,10 +7340,10 @@
         <v>229</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>256</v>
+        <v>490</v>
+      </c>
+      <c r="G235" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>1235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>74</v>
@@ -7363,10 +7363,10 @@
         <v>229</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>256</v>
+        <v>491</v>
+      </c>
+      <c r="G236" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -7374,7 +7374,7 @@
         <v>1236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>75</v>
@@ -7386,10 +7386,10 @@
         <v>229</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>256</v>
+        <v>492</v>
+      </c>
+      <c r="G237" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -7397,7 +7397,7 @@
         <v>1237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>76</v>
@@ -7409,10 +7409,10 @@
         <v>229</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>256</v>
+        <v>493</v>
+      </c>
+      <c r="G238" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -7420,7 +7420,7 @@
         <v>1238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>254</v>
@@ -7432,10 +7432,10 @@
         <v>229</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>256</v>
+        <v>494</v>
+      </c>
+      <c r="G239" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -7443,7 +7443,7 @@
         <v>1239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>77</v>
@@ -7455,10 +7455,10 @@
         <v>229</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>256</v>
+        <v>495</v>
+      </c>
+      <c r="G240" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -7466,7 +7466,7 @@
         <v>1240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>78</v>
@@ -7478,10 +7478,10 @@
         <v>229</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>256</v>
+        <v>496</v>
+      </c>
+      <c r="G241" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -7489,7 +7489,7 @@
         <v>1241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>79</v>
@@ -7501,10 +7501,10 @@
         <v>229</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>256</v>
+        <v>497</v>
+      </c>
+      <c r="G242" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -7512,7 +7512,7 @@
         <v>1242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>80</v>
@@ -7524,10 +7524,10 @@
         <v>229</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>256</v>
+        <v>498</v>
+      </c>
+      <c r="G243" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>1243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>81</v>
@@ -7547,10 +7547,10 @@
         <v>229</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>256</v>
+        <v>499</v>
+      </c>
+      <c r="G244" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -7558,7 +7558,7 @@
         <v>1244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>82</v>
@@ -7570,10 +7570,10 @@
         <v>229</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>256</v>
+        <v>500</v>
+      </c>
+      <c r="G245" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -7581,7 +7581,7 @@
         <v>1245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>83</v>
@@ -7593,10 +7593,10 @@
         <v>229</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>256</v>
+        <v>501</v>
+      </c>
+      <c r="G246" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>1246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>84</v>
@@ -7616,10 +7616,10 @@
         <v>229</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>256</v>
+        <v>502</v>
+      </c>
+      <c r="G247" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII SAS FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII SAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CFBE5-58B5-A24E-87EF-036E76C83822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A713A9F-2684-F54B-B750-DE29CD6109F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
     <t>K0103009802463</t>
   </si>
   <si>
-    <t>SASTH46*</t>
+    <t>SASTH46#</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/PESERTA UJIAN FIX ADMIN XII SAS FIX.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN XII SAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A713A9F-2684-F54B-B750-DE29CD6109F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B145B39-894C-1147-8980-2083EC49B973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
     <t>K0103009802463</t>
   </si>
   <si>
-    <t>SASTH46#</t>
+    <t>SASTH46@</t>
   </si>
 </sst>
 </file>
@@ -1605,10 +1605,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,7 +1984,7 @@
       <c r="F2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2006,7 +2007,7 @@
       <c r="F3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2029,7 +2030,7 @@
       <c r="F4" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2052,7 +2053,7 @@
       <c r="F5" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2075,7 +2076,7 @@
       <c r="F6" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2098,7 +2099,7 @@
       <c r="F7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2121,7 +2122,7 @@
       <c r="F8" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2144,7 +2145,7 @@
       <c r="F9" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2167,7 +2168,7 @@
       <c r="F10" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2190,7 +2191,7 @@
       <c r="F11" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2213,7 +2214,7 @@
       <c r="F12" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2236,7 +2237,7 @@
       <c r="F13" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2259,7 +2260,7 @@
       <c r="F14" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2282,7 +2283,7 @@
       <c r="F15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2305,7 +2306,7 @@
       <c r="F16" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2328,7 +2329,7 @@
       <c r="F17" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2351,7 +2352,7 @@
       <c r="F18" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2374,7 +2375,7 @@
       <c r="F19" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2397,7 +2398,7 @@
       <c r="F20" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2420,7 +2421,7 @@
       <c r="F21" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2443,7 +2444,7 @@
       <c r="F22" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       <c r="F23" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2489,7 +2490,7 @@
       <c r="F24" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2512,7 +2513,7 @@
       <c r="F25" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2535,7 +2536,7 @@
       <c r="F26" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2558,7 +2559,7 @@
       <c r="F27" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2581,7 +2582,7 @@
       <c r="F28" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2604,7 +2605,7 @@
       <c r="F29" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2627,7 +2628,7 @@
       <c r="F30" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2650,7 +2651,7 @@
       <c r="F31" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2673,7 +2674,7 @@
       <c r="F32" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2696,7 +2697,7 @@
       <c r="F33" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2719,7 +2720,7 @@
       <c r="F34" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2742,7 +2743,7 @@
       <c r="F35" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2765,7 +2766,7 @@
       <c r="F36" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2788,7 +2789,7 @@
       <c r="F37" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2811,7 +2812,7 @@
       <c r="F38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2834,7 +2835,7 @@
       <c r="F39" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2857,7 +2858,7 @@
       <c r="F40" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2880,7 +2881,7 @@
       <c r="F41" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2903,7 +2904,7 @@
       <c r="F42" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2926,7 +2927,7 @@
       <c r="F43" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2949,7 +2950,7 @@
       <c r="F44" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2972,7 +2973,7 @@
       <c r="F45" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2995,7 +2996,7 @@
       <c r="F46" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3018,7 +3019,7 @@
       <c r="F47" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3041,7 +3042,7 @@
       <c r="F48" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3064,7 +3065,7 @@
       <c r="F49" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3087,7 +3088,7 @@
       <c r="F50" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3110,7 +3111,7 @@
       <c r="F51" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3133,7 +3134,7 @@
       <c r="F52" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       <c r="F53" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
       <c r="F54" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3202,7 +3203,7 @@
       <c r="F55" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3225,7 +3226,7 @@
       <c r="F56" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3248,7 +3249,7 @@
       <c r="F57" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3271,7 +3272,7 @@
       <c r="F58" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3294,7 +3295,7 @@
       <c r="F59" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3317,7 +3318,7 @@
       <c r="F60" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3340,7 +3341,7 @@
       <c r="F61" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3363,7 +3364,7 @@
       <c r="F62" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3386,7 +3387,7 @@
       <c r="F63" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3409,7 +3410,7 @@
       <c r="F64" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3432,7 +3433,7 @@
       <c r="F65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3455,7 +3456,7 @@
       <c r="F66" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3478,7 +3479,7 @@
       <c r="F67" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3501,7 +3502,7 @@
       <c r="F68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3524,7 +3525,7 @@
       <c r="F69" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3547,7 +3548,7 @@
       <c r="F70" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3570,7 +3571,7 @@
       <c r="F71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3593,7 +3594,7 @@
       <c r="F72" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3616,7 +3617,7 @@
       <c r="F73" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3639,7 +3640,7 @@
       <c r="F74" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3662,7 +3663,7 @@
       <c r="F75" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3685,7 +3686,7 @@
       <c r="F76" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3708,7 +3709,7 @@
       <c r="F77" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3731,7 +3732,7 @@
       <c r="F78" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3754,7 +3755,7 @@
       <c r="F79" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3777,7 +3778,7 @@
       <c r="F80" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3800,7 +3801,7 @@
       <c r="F81" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3823,7 +3824,7 @@
       <c r="F82" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       <c r="F83" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3869,7 +3870,7 @@
       <c r="F84" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3892,7 +3893,7 @@
       <c r="F85" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3915,7 +3916,7 @@
       <c r="F86" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3938,7 +3939,7 @@
       <c r="F87" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3961,7 +3962,7 @@
       <c r="F88" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3984,7 +3985,7 @@
       <c r="F89" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4007,7 +4008,7 @@
       <c r="F90" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4030,7 +4031,7 @@
       <c r="F91" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4053,7 +4054,7 @@
       <c r="F92" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4076,7 +4077,7 @@
       <c r="F93" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4099,7 +4100,7 @@
       <c r="F94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4122,7 +4123,7 @@
       <c r="F95" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4145,7 +4146,7 @@
       <c r="F96" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4168,7 +4169,7 @@
       <c r="F97" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4191,7 +4192,7 @@
       <c r="F98" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4214,7 +4215,7 @@
       <c r="F99" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4237,7 +4238,7 @@
       <c r="F100" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4260,7 +4261,7 @@
       <c r="F101" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4283,7 +4284,7 @@
       <c r="F102" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4306,7 +4307,7 @@
       <c r="F103" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4329,7 +4330,7 @@
       <c r="F104" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4352,7 +4353,7 @@
       <c r="F105" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4375,7 +4376,7 @@
       <c r="F106" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4398,7 +4399,7 @@
       <c r="F107" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4421,7 +4422,7 @@
       <c r="F108" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4444,7 +4445,7 @@
       <c r="F109" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4467,7 +4468,7 @@
       <c r="F110" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4490,7 +4491,7 @@
       <c r="F111" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4513,7 +4514,7 @@
       <c r="F112" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       <c r="F113" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4559,7 +4560,7 @@
       <c r="F114" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4582,7 +4583,7 @@
       <c r="F115" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4605,7 +4606,7 @@
       <c r="F116" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4628,7 +4629,7 @@
       <c r="F117" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4651,7 +4652,7 @@
       <c r="F118" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4674,7 +4675,7 @@
       <c r="F119" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4697,7 +4698,7 @@
       <c r="F120" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4720,7 +4721,7 @@
       <c r="F121" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4743,7 +4744,7 @@
       <c r="F122" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4766,7 +4767,7 @@
       <c r="F123" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4789,7 +4790,7 @@
       <c r="F124" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4812,7 +4813,7 @@
       <c r="F125" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4835,7 +4836,7 @@
       <c r="F126" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4858,7 +4859,7 @@
       <c r="F127" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4881,7 +4882,7 @@
       <c r="F128" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4904,7 +4905,7 @@
       <c r="F129" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4927,7 +4928,7 @@
       <c r="F130" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4950,7 +4951,7 @@
       <c r="F131" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4973,7 +4974,7 @@
       <c r="F132" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4996,7 +4997,7 @@
       <c r="F133" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5019,7 +5020,7 @@
       <c r="F134" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5042,7 +5043,7 @@
       <c r="F135" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5065,7 +5066,7 @@
       <c r="F136" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5088,7 +5089,7 @@
       <c r="F137" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5111,7 +5112,7 @@
       <c r="F138" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5134,7 +5135,7 @@
       <c r="F139" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5157,7 +5158,7 @@
       <c r="F140" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5180,7 +5181,7 @@
       <c r="F141" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5203,7 +5204,7 @@
       <c r="F142" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       <c r="F143" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5249,7 +5250,7 @@
       <c r="F144" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5272,7 +5273,7 @@
       <c r="F145" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5295,7 +5296,7 @@
       <c r="F146" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5318,7 +5319,7 @@
       <c r="F147" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5341,7 +5342,7 @@
       <c r="F148" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5364,7 +5365,7 @@
       <c r="F149" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5387,7 +5388,7 @@
       <c r="F150" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5410,7 +5411,7 @@
       <c r="F151" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5433,7 +5434,7 @@
       <c r="F152" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5456,7 +5457,7 @@
       <c r="F153" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5479,7 +5480,7 @@
       <c r="F154" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5502,7 +5503,7 @@
       <c r="F155" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5525,7 +5526,7 @@
       <c r="F156" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5548,7 +5549,7 @@
       <c r="F157" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5571,7 +5572,7 @@
       <c r="F158" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5594,7 +5595,7 @@
       <c r="F159" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5617,7 +5618,7 @@
       <c r="F160" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5640,7 +5641,7 @@
       <c r="F161" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5663,7 +5664,7 @@
       <c r="F162" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5686,7 +5687,7 @@
       <c r="F163" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5709,7 +5710,7 @@
       <c r="F164" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5732,7 +5733,7 @@
       <c r="F165" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5755,7 +5756,7 @@
       <c r="F166" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5778,7 +5779,7 @@
       <c r="F167" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5801,7 +5802,7 @@
       <c r="F168" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5824,7 +5825,7 @@
       <c r="F169" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5847,7 +5848,7 @@
       <c r="F170" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5870,7 +5871,7 @@
       <c r="F171" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5893,7 +5894,7 @@
       <c r="F172" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       <c r="F173" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5939,7 +5940,7 @@
       <c r="F174" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5962,7 +5963,7 @@
       <c r="F175" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5985,7 +5986,7 @@
       <c r="F176" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6008,7 +6009,7 @@
       <c r="F177" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6031,7 +6032,7 @@
       <c r="F178" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6054,7 +6055,7 @@
       <c r="F179" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6077,7 +6078,7 @@
       <c r="F180" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6100,7 +6101,7 @@
       <c r="F181" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6123,7 +6124,7 @@
       <c r="F182" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6146,7 +6147,7 @@
       <c r="F183" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6169,7 +6170,7 @@
       <c r="F184" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6192,7 +6193,7 @@
       <c r="F185" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6215,7 +6216,7 @@
       <c r="F186" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6238,7 +6239,7 @@
       <c r="F187" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6261,7 +6262,7 @@
       <c r="F188" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6284,7 +6285,7 @@
       <c r="F189" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6307,7 +6308,7 @@
       <c r="F190" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6330,7 +6331,7 @@
       <c r="F191" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6353,7 +6354,7 @@
       <c r="F192" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6376,7 +6377,7 @@
       <c r="F193" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6399,7 +6400,7 @@
       <c r="F194" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6422,7 +6423,7 @@
       <c r="F195" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6445,7 +6446,7 @@
       <c r="F196" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6468,7 +6469,7 @@
       <c r="F197" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6491,7 +6492,7 @@
       <c r="F198" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6514,7 +6515,7 @@
       <c r="F199" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6537,7 +6538,7 @@
       <c r="F200" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6560,7 +6561,7 @@
       <c r="F201" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6583,7 +6584,7 @@
       <c r="F202" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       <c r="F203" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6629,7 +6630,7 @@
       <c r="F204" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6652,7 +6653,7 @@
       <c r="F205" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6675,7 +6676,7 @@
       <c r="F206" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6698,7 +6699,7 @@
       <c r="F207" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6721,7 +6722,7 @@
       <c r="F208" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6744,7 +6745,7 @@
       <c r="F209" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6767,7 +6768,7 @@
       <c r="F210" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6790,7 +6791,7 @@
       <c r="F211" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6813,7 +6814,7 @@
       <c r="F212" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6836,7 +6837,7 @@
       <c r="F213" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6859,7 +6860,7 @@
       <c r="F214" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6882,7 +6883,7 @@
       <c r="F215" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6905,7 +6906,7 @@
       <c r="F216" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6928,7 +6929,7 @@
       <c r="F217" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6951,7 +6952,7 @@
       <c r="F218" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6974,7 +6975,7 @@
       <c r="F219" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6997,7 +6998,7 @@
       <c r="F220" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7020,7 +7021,7 @@
       <c r="F221" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7043,7 +7044,7 @@
       <c r="F222" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7066,7 +7067,7 @@
       <c r="F223" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7089,7 +7090,7 @@
       <c r="F224" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7112,7 +7113,7 @@
       <c r="F225" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7135,7 +7136,7 @@
       <c r="F226" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7158,7 +7159,7 @@
       <c r="F227" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7181,7 +7182,7 @@
       <c r="F228" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7204,7 +7205,7 @@
       <c r="F229" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7227,7 +7228,7 @@
       <c r="F230" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7250,7 +7251,7 @@
       <c r="F231" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7273,7 +7274,7 @@
       <c r="F232" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       <c r="F233" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7319,7 +7320,7 @@
       <c r="F234" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7342,7 +7343,7 @@
       <c r="F235" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7365,7 +7366,7 @@
       <c r="F236" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7388,7 +7389,7 @@
       <c r="F237" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7411,7 +7412,7 @@
       <c r="F238" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7434,7 +7435,7 @@
       <c r="F239" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7457,7 +7458,7 @@
       <c r="F240" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7480,7 +7481,7 @@
       <c r="F241" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7503,7 +7504,7 @@
       <c r="F242" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7526,7 +7527,7 @@
       <c r="F243" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7549,7 +7550,7 @@
       <c r="F244" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7572,7 +7573,7 @@
       <c r="F245" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7595,7 +7596,7 @@
       <c r="F246" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7618,7 +7619,7 @@
       <c r="F247" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="3" t="s">
         <v>503</v>
       </c>
     </row>
